--- a/React Interview Questions - EY.xlsx
+++ b/React Interview Questions - EY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10731010\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding-Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FBFCD28-7582-4A3E-8CAD-6C02DF8AA248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C18EA9-17D0-4045-9FA4-A8F61A4030FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{70D06303-9652-4F78-8460-748EA160E5DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Question</t>
   </si>
@@ -169,12 +169,89 @@
   <si>
     <t>\|\\\\</t>
   </si>
+  <si>
+    <t>design HTML &amp; CSS for below :
+we have 3 div it shoild be horitzal and vertically centre in web page , havinfg same width and the height</t>
+  </si>
+  <si>
+    <t>5.Features of Html5 ?</t>
+  </si>
+  <si>
+    <t>6.what indicates HTML5 ?</t>
+  </si>
+  <si>
+    <t>7.Semantic &amp; Non-semantic Tags?</t>
+  </si>
+  <si>
+    <t>8.what is box model in css ?</t>
+  </si>
+  <si>
+    <t>9.difference between inline and inline block ?</t>
+  </si>
+  <si>
+    <t>10.what is flexbox and grid ?</t>
+  </si>
+  <si>
+    <t>11.difference between display and display-none ?</t>
+  </si>
+  <si>
+    <t>12.How to align centre using flexBox?</t>
+  </si>
+  <si>
+    <t>13.what is saas &amp; what is the extend keyword in saas?</t>
+  </si>
+  <si>
+    <t>if i have current dev branch and commited four diffrent codes how to get the second one code (how u will fetch the code)</t>
+  </si>
+  <si>
+    <t>git cherry-pick &lt;commit-hash&gt;</t>
+  </si>
+  <si>
+    <t>Semantic Elements,Audio and Video Support,Canvas Elements,Geolocation API,Local Storage,Responsive Images</t>
+  </si>
+  <si>
+    <t>with the help of doctype</t>
+  </si>
+  <si>
+    <t>they have meaning vs they don’t have meaning. 
+they describe how the content within them is supposed to behave vs they can contain anything
+they have specific attributes for their structure vs ‘class’ attribute can be used to work with their structure</t>
+  </si>
+  <si>
+    <t>The CSS box model is essentially a box that wraps around every HTML element. It consists of: content, padding, borders and margins.
+div {
+  background-color: lightgrey;
+  width: 300px;
+  border: 15px solid green;
+  padding: 50px;
+  margin: 20px;
+}</t>
+  </si>
+  <si>
+    <t>display: inline-block allows to set a width and height on the element.
+Also, with display: inline-block, the top and bottom margins/paddings are respected, but with display: inline they are not.</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/comparison-between-css-grid-css-flexbox/</t>
+  </si>
+  <si>
+    <t>The display property sets how an element is displayed (as inline or block) and also determines the layout of the children of an element
+ (as flex, grid, and so on). With a none value for this property, the display for the element is turned off.</t>
+  </si>
+  <si>
+    <t>justify-content: center;</t>
+  </si>
+  <si>
+    <t>it allows for the use of variables, nesting, mixins, and other programming constructs. SCSS has a file extension of .scss
+SASS adds the feature of @import which lets you import your customized SCSS files. 
+https://www.geeksforgeeks.org/what-is-the-difference-between-css-and-scss/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +286,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -249,6 +334,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,10 +353,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -569,7 +654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8E484F-083A-44AF-9E91-70BFE56EC669}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
@@ -729,6 +816,91 @@
         <v>37</v>
       </c>
     </row>
+    <row r="20" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>38</v>
@@ -747,23 +919,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cc96c2fb-3956-459e-8808-792bac0aadc1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A9ECEDFF352B54CA4ED2C8E23AB9BA0" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8559e3ab9c52a754a5307f64f9ae2d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cc96c2fb-3956-459e-8808-792bac0aadc1" xmlns:ns4="cc5133a2-d117-4aa9-92b6-1f58b05c7fa8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f59e7d31203e20afbeaf2b12fafc6608" ns3:_="" ns4:_="">
     <xsd:import namespace="cc96c2fb-3956-459e-8808-792bac0aadc1"/>
@@ -978,32 +1133,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955A32E3-62F8-4EEB-B8AE-9469AABD1987}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cc5133a2-d117-4aa9-92b6-1f58b05c7fa8"/>
-    <ds:schemaRef ds:uri="cc96c2fb-3956-459e-8808-792bac0aadc1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C436208B-9C77-4BAF-B6D2-C7AC1F3BFAB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cc96c2fb-3956-459e-8808-792bac0aadc1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{608F6BD3-BB3C-491E-BF0B-02DE30BBF061}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1020,4 +1167,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C436208B-9C77-4BAF-B6D2-C7AC1F3BFAB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955A32E3-62F8-4EEB-B8AE-9469AABD1987}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cc5133a2-d117-4aa9-92b6-1f58b05c7fa8"/>
+    <ds:schemaRef ds:uri="cc96c2fb-3956-459e-8808-792bac0aadc1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>